--- a/Banco de dados/Dicionario de dados.xlsx
+++ b/Banco de dados/Dicionario de dados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.dsantos15\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProjetoAjol\Banco de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43EF9B31-5F2A-4A2F-AE55-1054F90B8D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E376EF77-DA71-4BCA-BD9D-2663AD5CAE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{9133A8F4-5A59-486B-A57D-4A1D340F2FEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="101">
   <si>
     <t xml:space="preserve">Tabela </t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>img3_produto</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -2107,8 +2110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EE8664-1903-4639-8382-7AEADD4CA660}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F84" sqref="B81:F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,6 +2376,9 @@
       <c r="E22" t="s">
         <v>97</v>
       </c>
+      <c r="F22" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -2384,6 +2390,9 @@
       <c r="D23" t="s">
         <v>9</v>
       </c>
+      <c r="F23" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -2398,6 +2407,9 @@
       <c r="E24" t="s">
         <v>15</v>
       </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -2409,6 +2421,9 @@
       <c r="D25" t="s">
         <v>9</v>
       </c>
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -2420,6 +2435,9 @@
       <c r="D26" t="s">
         <v>9</v>
       </c>
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -2434,6 +2452,9 @@
       <c r="E27" t="s">
         <v>15</v>
       </c>
+      <c r="F27" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
@@ -2445,6 +2466,9 @@
       <c r="D28" t="s">
         <v>9</v>
       </c>
+      <c r="F28" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -2456,6 +2480,9 @@
       <c r="D29" t="s">
         <v>9</v>
       </c>
+      <c r="F29" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -2467,6 +2494,9 @@
       <c r="D30" t="s">
         <v>9</v>
       </c>
+      <c r="F30" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -2478,6 +2508,9 @@
       <c r="D31" t="s">
         <v>10</v>
       </c>
+      <c r="F31" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -2489,6 +2522,9 @@
       <c r="D32" t="s">
         <v>9</v>
       </c>
+      <c r="F32" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
@@ -2500,6 +2536,9 @@
       <c r="D33" t="s">
         <v>9</v>
       </c>
+      <c r="F33" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
@@ -2511,6 +2550,9 @@
       <c r="D34" t="s">
         <v>10</v>
       </c>
+      <c r="F34" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
@@ -2567,6 +2609,9 @@
       <c r="E39" t="s">
         <v>96</v>
       </c>
+      <c r="F39" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -2581,6 +2626,9 @@
       <c r="D40" t="s">
         <v>9</v>
       </c>
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -2595,6 +2643,9 @@
       <c r="D41" t="s">
         <v>9</v>
       </c>
+      <c r="F41" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
@@ -2606,6 +2657,9 @@
       <c r="D42" t="s">
         <v>9</v>
       </c>
+      <c r="F42" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
@@ -2617,6 +2671,9 @@
       <c r="D43" t="s">
         <v>9</v>
       </c>
+      <c r="F43" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
@@ -2628,6 +2685,9 @@
       <c r="D44" t="s">
         <v>9</v>
       </c>
+      <c r="F44" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -2639,6 +2699,9 @@
       <c r="D45" t="s">
         <v>9</v>
       </c>
+      <c r="F45" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -2650,6 +2713,9 @@
       <c r="D46" t="s">
         <v>9</v>
       </c>
+      <c r="F46" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -2661,6 +2727,9 @@
       <c r="D47" t="s">
         <v>10</v>
       </c>
+      <c r="F47" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -2717,6 +2786,9 @@
       <c r="E52" t="s">
         <v>50</v>
       </c>
+      <c r="F52" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
@@ -2728,6 +2800,9 @@
       <c r="D53" t="s">
         <v>9</v>
       </c>
+      <c r="F53" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
@@ -2739,6 +2814,9 @@
       <c r="D54" t="s">
         <v>26</v>
       </c>
+      <c r="F54" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
@@ -2750,6 +2828,9 @@
       <c r="D55" t="s">
         <v>26</v>
       </c>
+      <c r="F55" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
@@ -2806,6 +2887,9 @@
       <c r="E60" t="s">
         <v>97</v>
       </c>
+      <c r="F60" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -2820,6 +2904,9 @@
       <c r="D61" t="s">
         <v>9</v>
       </c>
+      <c r="F61" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
@@ -2831,6 +2918,9 @@
       <c r="D62" t="s">
         <v>9</v>
       </c>
+      <c r="F62" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
@@ -2842,6 +2932,9 @@
       <c r="D63" t="s">
         <v>9</v>
       </c>
+      <c r="F63" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
@@ -2853,6 +2946,9 @@
       <c r="D64" t="s">
         <v>9</v>
       </c>
+      <c r="F64" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
@@ -2864,6 +2960,9 @@
       <c r="D65" t="s">
         <v>10</v>
       </c>
+      <c r="F65" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
@@ -2875,6 +2974,9 @@
       <c r="D66" t="s">
         <v>9</v>
       </c>
+      <c r="F66" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
@@ -2886,6 +2988,9 @@
       <c r="D67" t="s">
         <v>9</v>
       </c>
+      <c r="F67" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
@@ -2897,6 +3002,9 @@
       <c r="D68" t="s">
         <v>9</v>
       </c>
+      <c r="F68" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
@@ -2908,6 +3016,9 @@
       <c r="D69" t="s">
         <v>9</v>
       </c>
+      <c r="F69" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
@@ -2919,6 +3030,9 @@
       <c r="D70" t="s">
         <v>9</v>
       </c>
+      <c r="F70" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
@@ -2930,6 +3044,9 @@
       <c r="D71" t="s">
         <v>9</v>
       </c>
+      <c r="F71" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -2941,6 +3058,9 @@
       <c r="D72" t="s">
         <v>10</v>
       </c>
+      <c r="F72" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
@@ -2952,6 +3072,9 @@
       <c r="D73" t="s">
         <v>9</v>
       </c>
+      <c r="F73" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
@@ -2963,6 +3086,9 @@
       <c r="D74" t="s">
         <v>10</v>
       </c>
+      <c r="F74" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
@@ -2974,6 +3100,9 @@
       <c r="D75" t="s">
         <v>10</v>
       </c>
+      <c r="F75" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
@@ -2985,6 +3114,9 @@
       <c r="D76" t="s">
         <v>10</v>
       </c>
+      <c r="F76" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
@@ -3025,7 +3157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -3041,8 +3173,11 @@
       <c r="E81" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -3055,8 +3190,11 @@
       <c r="D82" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>78</v>
       </c>
@@ -3066,8 +3204,11 @@
       <c r="D83" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>79</v>
       </c>

--- a/Banco de dados/Dicionario de dados.xlsx
+++ b/Banco de dados/Dicionario de dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProjetoAjol\Banco de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E376EF77-DA71-4BCA-BD9D-2663AD5CAE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55CC472-0107-47B5-A65F-FD3267139EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{9133A8F4-5A59-486B-A57D-4A1D340F2FEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="108">
   <si>
     <t xml:space="preserve">Tabela </t>
   </si>
@@ -285,9 +285,6 @@
     <t>id_usuario_compra</t>
   </si>
   <si>
-    <t>formapg_itemproduto</t>
-  </si>
-  <si>
     <t>img_usuario</t>
   </si>
   <si>
@@ -321,12 +318,6 @@
     <t>valortotal_itemproduto</t>
   </si>
   <si>
-    <t>valorparcial_itemproduto</t>
-  </si>
-  <si>
-    <t>valorlinha_itemproduto</t>
-  </si>
-  <si>
     <t>Auto_increment primary key</t>
   </si>
   <si>
@@ -340,14 +331,52 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>valortotal_compra</t>
+  </si>
+  <si>
+    <t>qtde_compra</t>
+  </si>
+  <si>
+    <t>datafechamento_compra</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>cupom_compra</t>
+  </si>
+  <si>
+    <t>valordesconto_compra</t>
+  </si>
+  <si>
+    <t>formapg_compra</t>
+  </si>
+  <si>
+    <t>valorunitario_itemproduto</t>
+  </si>
+  <si>
+    <t>decimal(10,2)</t>
+  </si>
+  <si>
+    <t>varhcar(30)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -375,8 +404,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2108,10 +2138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EE8664-1903-4639-8382-7AEADD4CA660}">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F84" sqref="B81:F84"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,10 +2229,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
         <v>84</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -2213,10 +2243,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -2224,10 +2254,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -2235,7 +2265,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -2374,10 +2404,10 @@
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2391,15 +2421,15 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
         <v>84</v>
-      </c>
-      <c r="C24" t="s">
-        <v>85</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -2408,26 +2438,26 @@
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
         <v>64</v>
@@ -2436,7 +2466,7 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2453,7 +2483,7 @@
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2467,7 +2497,7 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2481,7 +2511,7 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2495,7 +2525,7 @@
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2509,7 +2539,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2523,7 +2553,7 @@
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2537,7 +2567,7 @@
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2551,7 +2581,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2607,10 +2637,10 @@
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F39" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2627,7 +2657,7 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2644,7 +2674,7 @@
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2658,12 +2688,12 @@
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -2672,12 +2702,12 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -2686,503 +2716,503 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" t="s">
         <v>10</v>
       </c>
-      <c r="F47" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
       <c r="B48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>1</v>
-      </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>2</v>
-      </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
       <c r="B56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>51</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>2</v>
-      </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
       </c>
-      <c r="E60" t="s">
-        <v>97</v>
-      </c>
       <c r="F60" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>13</v>
-      </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="D72" t="s">
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C73" t="s">
         <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
       </c>
-      <c r="F75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" t="s">
-        <v>34</v>
-      </c>
-      <c r="D76" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
       <c r="B77" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" t="s">
-        <v>36</v>
-      </c>
-      <c r="D77" t="s">
-        <v>10</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>93</v>
+      </c>
+      <c r="F79" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>2</v>
-      </c>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
       </c>
-      <c r="E81" t="s">
-        <v>96</v>
-      </c>
       <c r="F81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>13</v>
-      </c>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -3191,26 +3221,26 @@
         <v>9</v>
       </c>
       <c r="F82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>78</v>
-      </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="D83" t="s">
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s">
         <v>25</v>
@@ -3218,8 +3248,66 @@
       <c r="D84" t="s">
         <v>9</v>
       </c>
+      <c r="F84" t="s">
+        <v>97</v>
+      </c>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>